--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Angina (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Angina (UPTO).xlsx
@@ -587,7 +587,7 @@
         <v>0.0223947740166151</v>
       </c>
       <c r="F2" t="n">
-        <v>4.06340165023867</v>
+        <v>4.063401650238671</v>
       </c>
       <c r="G2" t="n">
         <v>3.081073442712329</v>
@@ -608,7 +608,7 @@
         <v>12.17568357909484</v>
       </c>
       <c r="M2" t="n">
-        <v>4.124739391698413</v>
+        <v>4.124739391698412</v>
       </c>
       <c r="N2" t="n">
         <v>0.06278158037533937</v>
@@ -670,10 +670,10 @@
         <v>-0.06186871296293323</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.888588799328195</v>
+        <v>-8.888588799328193</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.684791438318852</v>
+        <v>-3.684791438318853</v>
       </c>
       <c r="H3" t="n">
         <v>-0.1103246495310513</v>
@@ -691,7 +691,7 @@
         <v>-1.622599249680547</v>
       </c>
       <c r="M3" t="n">
-        <v>3.577583647958037</v>
+        <v>3.577583647958036</v>
       </c>
       <c r="N3" t="n">
         <v>0.08612481040646144</v>
@@ -700,16 +700,16 @@
         <v>10.25215781453766</v>
       </c>
       <c r="P3" t="n">
-        <v>3.952097257888953</v>
+        <v>3.952097257888954</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05099721229082671</v>
+        <v>0.0509972122908267</v>
       </c>
       <c r="R3" t="n">
         <v>11.09475190658819</v>
       </c>
       <c r="S3" t="n">
-        <v>2.986169660493604</v>
+        <v>2.986169660493603</v>
       </c>
       <c r="T3" t="n">
         <v>0.02513809671999237</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.83906877073121</v>
+        <v>4.839068770731211</v>
       </c>
       <c r="Y3" t="n">
         <v>0.3616320596765781</v>
@@ -753,13 +753,13 @@
         <v>-0.04397350710280495</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.615302253657793</v>
+        <v>-6.615302253657791</v>
       </c>
       <c r="G4" t="n">
         <v>-3.094423841501711</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0812248159791549</v>
+        <v>-0.08122481597915487</v>
       </c>
       <c r="I4" t="n">
         <v>-8.944632315677945</v>
@@ -777,7 +777,7 @@
         <v>4.478138934965551</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08474957902278178</v>
+        <v>0.08474957902278177</v>
       </c>
       <c r="O4" t="n">
         <v>12.88428325718569</v>
@@ -836,7 +836,7 @@
         <v>-0.03240138554177008</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.769126698497003</v>
+        <v>-3.769126698497001</v>
       </c>
       <c r="G5" t="n">
         <v>-0.9845639702972853</v>
@@ -845,7 +845,7 @@
         <v>-0.05147377475880117</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.838048927798857</v>
+        <v>-2.838048927798855</v>
       </c>
       <c r="J5" t="n">
         <v>0.30962684670763</v>
@@ -860,7 +860,7 @@
         <v>1.870477368539972</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02819085981442081</v>
+        <v>0.02819085981442082</v>
       </c>
       <c r="O5" t="n">
         <v>5.4633345607291</v>
@@ -869,7 +869,7 @@
         <v>2.596846148720166</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0156685213575869</v>
+        <v>0.01566852135758688</v>
       </c>
       <c r="R5" t="n">
         <v>7.59373581094177</v>
@@ -916,16 +916,16 @@
         <v>0.6461372903568475</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007616580691498214</v>
+        <v>0.007616580691498212</v>
       </c>
       <c r="F6" t="n">
-        <v>2.063727815138886</v>
+        <v>2.063727815138887</v>
       </c>
       <c r="G6" t="n">
         <v>1.664302721257869</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02607710271274747</v>
+        <v>0.02607710271274746</v>
       </c>
       <c r="I6" t="n">
         <v>5.041694291592066</v>
@@ -999,7 +999,7 @@
         <v>-0.4549458873441035</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.010574589803738</v>
+        <v>-0.01057458980373799</v>
       </c>
       <c r="F7" t="n">
         <v>-1.480543659966025</v>
@@ -1038,7 +1038,7 @@
         <v>0.05827296321000729</v>
       </c>
       <c r="R7" t="n">
-        <v>11.6819895646292</v>
+        <v>11.68198956462921</v>
       </c>
       <c r="S7" t="n">
         <v>2.343128876368346</v>
@@ -1079,25 +1079,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3556459744457259</v>
+        <v>0.3556459744457258</v>
       </c>
       <c r="E8" t="n">
         <v>0.01475424233348405</v>
       </c>
       <c r="F8" t="n">
-        <v>1.232522587938458</v>
+        <v>1.232522587938456</v>
       </c>
       <c r="G8" t="n">
         <v>1.785595174315505</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05867058110111451</v>
+        <v>0.05867058110111452</v>
       </c>
       <c r="I8" t="n">
-        <v>5.663781212683135</v>
+        <v>5.663781212683134</v>
       </c>
       <c r="J8" t="n">
-        <v>5.874163900643767</v>
+        <v>5.874163900643766</v>
       </c>
       <c r="K8" t="n">
         <v>0.1448449358602016</v>
@@ -1130,7 +1130,7 @@
         <v>0.03216542463736757</v>
       </c>
       <c r="U8" t="n">
-        <v>7.709455439892967</v>
+        <v>7.709455439892966</v>
       </c>
       <c r="V8" t="n">
         <v>0.8639165763080661</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.108513012602422</v>
+        <v>3.108513012602423</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1218361736112759</v>
+        <v>0.1218361736112758</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.399590310957199</v>
+        <v>-0.3995903109571988</v>
       </c>
       <c r="E9" t="n">
         <v>-0.01412115581746325</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.344969654023716</v>
+        <v>-1.344969654023715</v>
       </c>
       <c r="G9" t="n">
         <v>0.3928674965204779</v>
@@ -1183,10 +1183,10 @@
         <v>1.964020647521272</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02457125240022904</v>
+        <v>0.02457125240022903</v>
       </c>
       <c r="L9" t="n">
-        <v>6.025031837770407</v>
+        <v>6.025031837770406</v>
       </c>
       <c r="M9" t="n">
         <v>3.396917950798009</v>
@@ -1201,7 +1201,7 @@
         <v>2.981620336814397</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02813856955048714</v>
+        <v>0.02813856955048713</v>
       </c>
       <c r="R9" t="n">
         <v>8.762608663873882</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7792506420077339</v>
+        <v>0.7792506420077338</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01898179684649578</v>
+        <v>0.01898179684649579</v>
       </c>
       <c r="F10" t="n">
-        <v>2.518804010233543</v>
+        <v>2.518804010233541</v>
       </c>
       <c r="G10" t="n">
         <v>3.253726672236376</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.571634211579968</v>
+        <v>2.571634211579969</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08943220983908251</v>
+        <v>0.08943220983908244</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>0.01927776148160371</v>
       </c>
       <c r="F11" t="n">
-        <v>3.789788939668053</v>
+        <v>3.789788939668052</v>
       </c>
       <c r="G11" t="n">
         <v>3.907476567349646</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0730796952949595</v>
+        <v>0.07307969529495952</v>
       </c>
       <c r="I11" t="n">
         <v>11.70065628813529</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.296445761354097</v>
+        <v>2.296445761354096</v>
       </c>
       <c r="Y11" t="n">
         <v>0.121596009596933</v>
@@ -1414,7 +1414,7 @@
         <v>2.299594104820453</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03746893197683991</v>
+        <v>0.0374689319768399</v>
       </c>
       <c r="F12" t="n">
         <v>7.334060414772964</v>
@@ -1426,10 +1426,10 @@
         <v>0.09723743267294518</v>
       </c>
       <c r="I12" t="n">
-        <v>15.27786418930893</v>
+        <v>15.27786418930894</v>
       </c>
       <c r="J12" t="n">
-        <v>4.328548795178342</v>
+        <v>4.328548795178343</v>
       </c>
       <c r="K12" t="n">
         <v>0.07461342346524621</v>
@@ -1441,7 +1441,7 @@
         <v>1.572011823624233</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.001450318987650204</v>
+        <v>-0.00145031898765019</v>
       </c>
       <c r="O12" t="n">
         <v>4.904377295436008</v>
@@ -1453,16 +1453,16 @@
         <v>-0.01870143773814378</v>
       </c>
       <c r="R12" t="n">
-        <v>4.086493112684503</v>
+        <v>4.086493112684502</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9179024446846302</v>
+        <v>0.91790244468463</v>
       </c>
       <c r="T12" t="n">
         <v>-0.006511897950647168</v>
       </c>
       <c r="U12" t="n">
-        <v>3.19168526797735</v>
+        <v>3.191685267977351</v>
       </c>
       <c r="V12" t="n">
         <v>0.5344225333824901</v>
@@ -1500,7 +1500,7 @@
         <v>0.05229165491649211</v>
       </c>
       <c r="F13" t="n">
-        <v>8.773677034556936</v>
+        <v>8.773677034556934</v>
       </c>
       <c r="G13" t="n">
         <v>6.635021768178193</v>
@@ -1521,7 +1521,7 @@
         <v>21.26327752550305</v>
       </c>
       <c r="M13" t="n">
-        <v>5.368578131146543</v>
+        <v>5.368578131146544</v>
       </c>
       <c r="N13" t="n">
         <v>0.1140938926291949</v>
@@ -1539,10 +1539,10 @@
         <v>8.138635529628692</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9712187902196159</v>
+        <v>0.971218790219616</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00396688774884079</v>
+        <v>0.003966887748840789</v>
       </c>
       <c r="U13" t="n">
         <v>3.786826985572683</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.396958581128303</v>
+        <v>1.396958581128302</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03254226453416886</v>
+        <v>0.03254226453416884</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         <v>1.755909232958277</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03367093094254205</v>
+        <v>0.03367093094254204</v>
       </c>
       <c r="F14" t="n">
-        <v>5.638592275964951</v>
+        <v>5.63859227596495</v>
       </c>
       <c r="G14" t="n">
         <v>4.537183418803484</v>
@@ -1619,7 +1619,7 @@
         <v>0.0352503304992251</v>
       </c>
       <c r="R14" t="n">
-        <v>9.331790653543278</v>
+        <v>9.331790653543276</v>
       </c>
       <c r="S14" t="n">
         <v>1.443431306962107</v>
@@ -1640,7 +1640,7 @@
         <v>2.115141571752426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.09327111895164761</v>
+        <v>0.09327111895164759</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1660,25 +1660,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4526436932429367</v>
+        <v>0.4526436932429366</v>
       </c>
       <c r="E15" t="n">
         <v>-0.002934058120606944</v>
       </c>
       <c r="F15" t="n">
-        <v>1.350335402334188</v>
+        <v>1.350335402334189</v>
       </c>
       <c r="G15" t="n">
         <v>1.715663497724282</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007377100013448969</v>
+        <v>0.007377100013448976</v>
       </c>
       <c r="I15" t="n">
-        <v>5.075226475117701</v>
+        <v>5.075226475117702</v>
       </c>
       <c r="J15" t="n">
-        <v>1.320439019298664</v>
+        <v>1.320439019298665</v>
       </c>
       <c r="K15" t="n">
         <v>-0.004976933771983286</v>
@@ -1687,10 +1687,10 @@
         <v>3.921604674836578</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1633710891219087</v>
+        <v>0.1633710891219078</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.02974309077761982</v>
+        <v>-0.0297430907776198</v>
       </c>
       <c r="O15" t="n">
         <v>0.6745113069205431</v>
@@ -1699,7 +1699,7 @@
         <v>1.241595039551378</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01966016957565293</v>
+        <v>-0.01966016957565294</v>
       </c>
       <c r="R15" t="n">
         <v>4.092719715295353</v>
@@ -1764,13 +1764,13 @@
         <v>2.469426733816789</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03308502580865885</v>
+        <v>0.03308502580865884</v>
       </c>
       <c r="L16" t="n">
         <v>7.411082818899688</v>
       </c>
       <c r="M16" t="n">
-        <v>2.543364811088978</v>
+        <v>2.543364811088977</v>
       </c>
       <c r="N16" t="n">
         <v>0.03483932252418426</v>
@@ -1782,10 +1782,10 @@
         <v>2.303994782230003</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01047422408386723</v>
+        <v>0.01047422408386722</v>
       </c>
       <c r="R16" t="n">
-        <v>7.012100616050675</v>
+        <v>7.012100616050674</v>
       </c>
       <c r="S16" t="n">
         <v>1.738293526257243</v>
@@ -1794,7 +1794,7 @@
         <v>0.006312672785248052</v>
       </c>
       <c r="U16" t="n">
-        <v>5.299167281151243</v>
+        <v>5.299167281151244</v>
       </c>
       <c r="V16" t="n">
         <v>0.9626375793458023</v>
@@ -1829,10 +1829,10 @@
         <v>2.797292451822084</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0514770775735997</v>
+        <v>0.05147707757359968</v>
       </c>
       <c r="F17" t="n">
-        <v>9.031993252266975</v>
+        <v>9.031993252266977</v>
       </c>
       <c r="G17" t="n">
         <v>4.994237040733274</v>
@@ -1853,7 +1853,7 @@
         <v>12.23270006626411</v>
       </c>
       <c r="M17" t="n">
-        <v>1.791747817029826</v>
+        <v>1.791747817029825</v>
       </c>
       <c r="N17" t="n">
         <v>-0.0321430396061647</v>
@@ -1862,7 +1862,7 @@
         <v>5.540426651698182</v>
       </c>
       <c r="P17" t="n">
-        <v>1.297911565348793</v>
+        <v>1.297911565348792</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.0180454778563733</v>
@@ -1912,7 +1912,7 @@
         <v>-1.804197951919989</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03696943430442506</v>
+        <v>-0.03696943430442505</v>
       </c>
       <c r="F18" t="n">
         <v>-5.766335834910786</v>
@@ -1927,19 +1927,19 @@
         <v>-9.151113307583083</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06400532074986653</v>
+        <v>-0.06400532074986742</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.02666102001789264</v>
+        <v>-0.02666102001789263</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3159876704280684</v>
+        <v>0.3159876704280702</v>
       </c>
       <c r="M18" t="n">
-        <v>4.588006931668346</v>
+        <v>4.588006931668347</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06940321871352453</v>
+        <v>0.06940321871352452</v>
       </c>
       <c r="O18" t="n">
         <v>13.20230793531677</v>
@@ -1960,7 +1960,7 @@
         <v>0.02583975745497147</v>
       </c>
       <c r="U18" t="n">
-        <v>8.4228321116577</v>
+        <v>8.422832111657698</v>
       </c>
       <c r="V18" t="n">
         <v>1.599866955420347</v>
@@ -1995,10 +1995,10 @@
         <v>2.916692369496372</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0522471253019568</v>
+        <v>0.05224712530195678</v>
       </c>
       <c r="F19" t="n">
-        <v>9.333734249872748</v>
+        <v>9.333734249872746</v>
       </c>
       <c r="G19" t="n">
         <v>6.568364780734518</v>
@@ -2010,31 +2010,31 @@
         <v>19.51069119509928</v>
       </c>
       <c r="J19" t="n">
-        <v>6.02516857271938</v>
+        <v>6.025168572719381</v>
       </c>
       <c r="K19" t="n">
         <v>0.1236151251447017</v>
       </c>
       <c r="L19" t="n">
-        <v>17.66287101644269</v>
+        <v>17.6628710164427</v>
       </c>
       <c r="M19" t="n">
         <v>3.043518407530872</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04183829917276216</v>
+        <v>0.04183829917276218</v>
       </c>
       <c r="O19" t="n">
         <v>9.214554146338809</v>
       </c>
       <c r="P19" t="n">
-        <v>1.458713184528078</v>
+        <v>1.458713184528077</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.006395379515686153</v>
+        <v>-0.00639537951568616</v>
       </c>
       <c r="R19" t="n">
-        <v>5.237310297244993</v>
+        <v>5.237310297244992</v>
       </c>
       <c r="S19" t="n">
         <v>0.7592894690173766</v>
@@ -2055,7 +2055,7 @@
         <v>1.400947767419006</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06518602080901301</v>
+        <v>0.06518602080901302</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>2.239894145983309</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03708390811266137</v>
+        <v>0.03708390811266135</v>
       </c>
       <c r="F20" t="n">
-        <v>7.183189915970077</v>
+        <v>7.183189915970078</v>
       </c>
       <c r="G20" t="n">
         <v>4.364530189279437</v>
@@ -2090,34 +2090,34 @@
         <v>0.08492797748499761</v>
       </c>
       <c r="I20" t="n">
-        <v>12.95496969450862</v>
+        <v>12.95496969450863</v>
       </c>
       <c r="J20" t="n">
         <v>3.395786952953031</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0452606352447513</v>
+        <v>0.04526063524475131</v>
       </c>
       <c r="L20" t="n">
-        <v>9.961328051163772</v>
+        <v>9.96132805116377</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9461265283737097</v>
+        <v>0.9461265283737093</v>
       </c>
       <c r="N20" t="n">
         <v>-0.03844098837711363</v>
       </c>
       <c r="O20" t="n">
-        <v>3.067313548115694</v>
+        <v>3.067313548115695</v>
       </c>
       <c r="P20" t="n">
-        <v>1.038332700627194</v>
+        <v>1.038332700627193</v>
       </c>
       <c r="Q20" t="n">
         <v>-0.02452648690848735</v>
       </c>
       <c r="R20" t="n">
-        <v>3.547195857147502</v>
+        <v>3.547195857147501</v>
       </c>
       <c r="S20" t="n">
         <v>1.041936396596999</v>
@@ -2126,19 +2126,19 @@
         <v>-0.007496367093134747</v>
       </c>
       <c r="U20" t="n">
-        <v>3.300294864736717</v>
+        <v>3.300294864736718</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6632956475030426</v>
+        <v>0.6632956475030425</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.148585602635237</v>
+        <v>2.148585602635236</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.159758337037974</v>
+        <v>0.1597583370379741</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2161,19 +2161,19 @@
         <v>0.8856174123313038</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007957074941141449</v>
+        <v>0.007957074941141448</v>
       </c>
       <c r="F21" t="n">
-        <v>2.774655529257584</v>
+        <v>2.774655529257585</v>
       </c>
       <c r="G21" t="n">
         <v>2.384709603814815</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02976078221976587</v>
+        <v>0.02976078221976586</v>
       </c>
       <c r="I21" t="n">
-        <v>7.088399482060307</v>
+        <v>7.088399482060308</v>
       </c>
       <c r="J21" t="n">
         <v>2.126522931341787</v>
@@ -2188,7 +2188,7 @@
         <v>0.954058379426626</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01577196185204226</v>
+        <v>-0.01577196185204224</v>
       </c>
       <c r="O21" t="n">
         <v>2.988612071437487</v>
@@ -2197,7 +2197,7 @@
         <v>1.456379390489988</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01334315049398149</v>
+        <v>-0.0133431504939815</v>
       </c>
       <c r="R21" t="n">
         <v>4.686183975947221</v>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2.790371618355153</v>
+        <v>2.790371618355152</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2168880748455384</v>
+        <v>0.2168880748455385</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0.03021342415788741</v>
       </c>
       <c r="F22" t="n">
-        <v>4.654051851275636</v>
+        <v>4.654051851275635</v>
       </c>
       <c r="G22" t="n">
         <v>4.643179660883856</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.085686727160319</v>
+        <v>2.08568672716032</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05942765714016533</v>
+        <v>0.05942765714016529</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2324,43 +2324,43 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.747220468057799</v>
+        <v>1.747220468057798</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02580775118673442</v>
+        <v>0.02580775118673441</v>
       </c>
       <c r="F23" t="n">
-        <v>5.607999290243797</v>
+        <v>5.607999290243798</v>
       </c>
       <c r="G23" t="n">
         <v>2.908420213188281</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05023484009073313</v>
+        <v>0.05023484009073314</v>
       </c>
       <c r="I23" t="n">
-        <v>8.618902192765706</v>
+        <v>8.618902192765708</v>
       </c>
       <c r="J23" t="n">
         <v>1.656941198684597</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.006167035125087789</v>
+        <v>-0.006167035125087775</v>
       </c>
       <c r="L23" t="n">
         <v>4.8639421959769</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.4704460571815305</v>
+        <v>-0.4704460571815314</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.08940278669215464</v>
+        <v>-0.08940278669215461</v>
       </c>
       <c r="O23" t="n">
         <v>-1.083850963721563</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7431475400989411</v>
+        <v>0.7431475400989407</v>
       </c>
       <c r="Q23" t="n">
         <v>-0.03666855516050235</v>
@@ -2375,7 +2375,7 @@
         <v>-0.009344101774891984</v>
       </c>
       <c r="U23" t="n">
-        <v>3.507466092780272</v>
+        <v>3.507466092780273</v>
       </c>
       <c r="V23" t="n">
         <v>0.885435857230236</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.638522273345589</v>
+        <v>2.638522273345588</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2224066460117353</v>
+        <v>0.2224066460117354</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>-0.002889528506071624</v>
       </c>
       <c r="F24" t="n">
-        <v>0.790278187018377</v>
+        <v>0.7902781870183775</v>
       </c>
       <c r="G24" t="n">
         <v>1.782320485167957</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01600287569437815</v>
+        <v>0.01600287569437814</v>
       </c>
       <c r="I24" t="n">
-        <v>5.351415779449771</v>
+        <v>5.351415779449772</v>
       </c>
       <c r="J24" t="n">
         <v>2.511652710544185</v>
@@ -2431,10 +2431,10 @@
         <v>0.03551099449904242</v>
       </c>
       <c r="L24" t="n">
-        <v>7.522011183896928</v>
+        <v>7.522011183896927</v>
       </c>
       <c r="M24" t="n">
-        <v>2.48843081273758</v>
+        <v>2.488430812737579</v>
       </c>
       <c r="N24" t="n">
         <v>0.04251250267881287</v>
@@ -2443,7 +2443,7 @@
         <v>7.379099784727623</v>
       </c>
       <c r="P24" t="n">
-        <v>2.259200268447013</v>
+        <v>2.259200268447014</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0103102341134246</v>
@@ -2461,7 +2461,7 @@
         <v>5.295817959326184</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9507689065078319</v>
+        <v>0.9507689065078317</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>-1.072044152020022</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02535278312885488</v>
+        <v>-0.02535278312885487</v>
       </c>
       <c r="F25" t="n">
         <v>-3.480217495065809</v>
@@ -2541,7 +2541,7 @@
         <v>0.02000050906041293</v>
       </c>
       <c r="U25" t="n">
-        <v>7.30808766304095</v>
+        <v>7.308087663040949</v>
       </c>
       <c r="V25" t="n">
         <v>1.297585529702473</v>
@@ -2579,7 +2579,7 @@
         <v>0.02196522053790123</v>
       </c>
       <c r="F26" t="n">
-        <v>4.472588366751596</v>
+        <v>4.472588366751598</v>
       </c>
       <c r="G26" t="n">
         <v>2.227352585268031</v>
@@ -2594,7 +2594,7 @@
         <v>1.957619024432202</v>
       </c>
       <c r="K26" t="n">
-        <v>0.007394073615826585</v>
+        <v>0.007394073615826599</v>
       </c>
       <c r="L26" t="n">
         <v>5.860191594945194</v>
@@ -2606,7 +2606,7 @@
         <v>-0.04646468247055674</v>
       </c>
       <c r="O26" t="n">
-        <v>3.624661427699658</v>
+        <v>3.62466142769966</v>
       </c>
       <c r="P26" t="n">
         <v>1.635557445621945</v>
@@ -2636,7 +2636,7 @@
         <v>2.892234251560762</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2216868969920909</v>
+        <v>0.221686896992091</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>4.579518235486336</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08876305513603516</v>
+        <v>0.08876305513603513</v>
       </c>
       <c r="F27" t="n">
         <v>14.74210555413513</v>
@@ -2671,10 +2671,10 @@
         <v>0.2094814475387583</v>
       </c>
       <c r="I27" t="n">
-        <v>27.49367491044277</v>
+        <v>27.49367491044278</v>
       </c>
       <c r="J27" t="n">
-        <v>8.142742483101143</v>
+        <v>8.142742483101145</v>
       </c>
       <c r="K27" t="n">
         <v>0.1762786628518199</v>
@@ -2686,7 +2686,7 @@
         <v>3.771339848431275</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04081358172789699</v>
+        <v>0.040813581727897</v>
       </c>
       <c r="O27" t="n">
         <v>11.44834404846842</v>
@@ -2695,10 +2695,10 @@
         <v>1.210656331820904</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.0114256868189632</v>
+        <v>-0.01142568681896321</v>
       </c>
       <c r="R27" t="n">
-        <v>4.67373077072552</v>
+        <v>4.673730770725518</v>
       </c>
       <c r="S27" t="n">
         <v>0.2748616605593726</v>
@@ -2707,7 +2707,7 @@
         <v>-0.009842152129542009</v>
       </c>
       <c r="U27" t="n">
-        <v>1.787954569158157</v>
+        <v>1.787954569158158</v>
       </c>
       <c r="V27" t="n">
         <v>-0.0239228334793653</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5269262454946149</v>
+        <v>0.5269262454946144</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.02266801871711296</v>
+        <v>-0.02266801871711299</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0.09308336696831199</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.002844998891536311</v>
+        <v>-0.002844998891536308</v>
       </c>
       <c r="F28" t="n">
         <v>0.2302209717025652</v>
@@ -2754,10 +2754,10 @@
         <v>0.02462865137530731</v>
       </c>
       <c r="I28" t="n">
-        <v>5.627605083781839</v>
+        <v>5.62760508378184</v>
       </c>
       <c r="J28" t="n">
-        <v>3.702866401789706</v>
+        <v>3.702866401789707</v>
       </c>
       <c r="K28" t="n">
         <v>0.07599892277006812</v>
@@ -2775,7 +2775,7 @@
         <v>14.0836882625347</v>
       </c>
       <c r="P28" t="n">
-        <v>3.276805497342649</v>
+        <v>3.27680549734265</v>
       </c>
       <c r="Q28" t="n">
         <v>0.04028063780250214</v>
@@ -2793,7 +2793,7 @@
         <v>6.094781583140012</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9020370083779592</v>
+        <v>0.9020370083779591</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>2.544098895871029</v>
       </c>
       <c r="E29" t="n">
-        <v>0.040541414897316</v>
+        <v>0.04054141489731598</v>
       </c>
       <c r="F29" t="n">
-        <v>8.167730340659393</v>
+        <v>8.167730340659395</v>
       </c>
       <c r="G29" t="n">
         <v>4.258533947199065</v>
@@ -2849,7 +2849,7 @@
         <v>6.249993177106181</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.323999196890563</v>
+        <v>-1.323999196890564</v>
       </c>
       <c r="N29" t="n">
         <v>-0.1183697619881749</v>
@@ -2858,7 +2858,7 @@
         <v>-3.478262590625841</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06552198551454724</v>
+        <v>0.06552198551454635</v>
       </c>
       <c r="Q29" t="n">
         <v>-0.05433290062712227</v>
@@ -2885,13 +2885,13 @@
         <v>2.178040447227342</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1936017988494563</v>
+        <v>0.1936017988494564</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.7768882724189468</v>
+        <v>0.7768882724189466</v>
       </c>
     </row>
     <row r="30">
@@ -2923,7 +2923,7 @@
         <v>11.01150499999295</v>
       </c>
       <c r="J30" t="n">
-        <v>3.696464778700636</v>
+        <v>3.696464778700637</v>
       </c>
       <c r="K30" t="n">
         <v>0.05882174398566568</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>2.40229758085041</v>
+        <v>2.402297580850409</v>
       </c>
       <c r="Y30" t="n">
         <v>0.1590385880183296</v>
@@ -3015,7 +3015,7 @@
         <v>15.55423335816071</v>
       </c>
       <c r="M31" t="n">
-        <v>6.559667112016879</v>
+        <v>6.55966711201688</v>
       </c>
       <c r="N31" t="n">
         <v>0.1196908135225148</v>
@@ -3027,7 +3027,7 @@
         <v>3.840757740568837</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05340664587717286</v>
+        <v>0.05340664587717287</v>
       </c>
       <c r="R31" t="n">
         <v>11.13646570648135</v>
@@ -3074,10 +3074,10 @@
         <v>0.2218523361689591</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004588627385557445</v>
+        <v>0.004588627385557452</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6700006739366451</v>
+        <v>0.6700006739366438</v>
       </c>
       <c r="G32" t="n">
         <v>2.624019820782538</v>
@@ -3086,7 +3086,7 @@
         <v>0.0522800335897636</v>
       </c>
       <c r="I32" t="n">
-        <v>8.020207891009083</v>
+        <v>8.020207891009081</v>
       </c>
       <c r="J32" t="n">
         <v>5.742389981805746</v>
@@ -3098,7 +3098,7 @@
         <v>17.21605294711244</v>
       </c>
       <c r="M32" t="n">
-        <v>7.874303551922241</v>
+        <v>7.874303551922242</v>
       </c>
       <c r="N32" t="n">
         <v>0.2086679986718845</v>
@@ -3107,7 +3107,7 @@
         <v>22.94336516579318</v>
       </c>
       <c r="P32" t="n">
-        <v>4.464400563393906</v>
+        <v>4.464400563393907</v>
       </c>
       <c r="Q32" t="n">
         <v>0.07640407060280849</v>
@@ -3122,7 +3122,7 @@
         <v>0.02459964516426971</v>
       </c>
       <c r="U32" t="n">
-        <v>6.791834253844591</v>
+        <v>6.791834253844592</v>
       </c>
       <c r="V32" t="n">
         <v>0.7481693418034749</v>
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.752938401181638</v>
+        <v>2.752938401181639</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1177571004843679</v>
+        <v>0.1177571004843678</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>13.7138292950779</v>
       </c>
       <c r="J33" t="n">
-        <v>5.862666288898865</v>
+        <v>5.862666288898866</v>
       </c>
       <c r="K33" t="n">
         <v>0.1310884291675699</v>
@@ -3196,7 +3196,7 @@
         <v>0.03508634052878247</v>
       </c>
       <c r="R33" t="n">
-        <v>9.313734985171656</v>
+        <v>9.313734985171655</v>
       </c>
       <c r="S33" t="n">
         <v>1.421067574922735</v>
@@ -3214,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>2.089675913451024</v>
+        <v>2.089675913451023</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.09207141341500949</v>
+        <v>0.09207141341500948</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>3.653870838472459</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06659576514835983</v>
+        <v>0.06659576514835981</v>
       </c>
       <c r="F34" t="n">
         <v>11.74259480148546</v>
@@ -3264,22 +3264,22 @@
         <v>16.33383652248268</v>
       </c>
       <c r="M34" t="n">
-        <v>1.564079972571317</v>
+        <v>1.564079972571316</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.02411934551272157</v>
+        <v>-0.02411934551272156</v>
       </c>
       <c r="O34" t="n">
         <v>4.983078772114217</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7006868203540413</v>
+        <v>0.7006868203540408</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.02988477415264964</v>
+        <v>-0.02988477415264965</v>
       </c>
       <c r="R34" t="n">
-        <v>2.947504993884784</v>
+        <v>2.947504993884782</v>
       </c>
       <c r="S34" t="n">
         <v>0.5127811240602529</v>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.22363276410804</v>
+        <v>1.223632764108039</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.06950488643857181</v>
+        <v>0.06950488643857182</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>1.194166544669263</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0153461716036999</v>
+        <v>0.01534617160369989</v>
       </c>
       <c r="F35" t="n">
         <v>3.774492446807476</v>
@@ -3332,7 +3332,7 @@
         <v>3.093094964542045</v>
       </c>
       <c r="H35" t="n">
-        <v>0.048786388753293</v>
+        <v>0.04878638875329298</v>
       </c>
       <c r="I35" t="n">
         <v>9.204812984955481</v>
@@ -3353,34 +3353,34 @@
         <v>0.005872347228163932</v>
       </c>
       <c r="O35" t="n">
-        <v>5.143700496888886</v>
+        <v>5.143700496888887</v>
       </c>
       <c r="P35" t="n">
         <v>1.626369227645609</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.007190121382752684</v>
+        <v>-0.007190121382752691</v>
       </c>
       <c r="R35" t="n">
-        <v>5.261592568227466</v>
+        <v>5.261592568227465</v>
       </c>
       <c r="S35" t="n">
         <v>1.36775122938775</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.0005514459528707071</v>
+        <v>-0.0005514459528707053</v>
       </c>
       <c r="U35" t="n">
         <v>4.296381751118921</v>
       </c>
       <c r="V35" t="n">
-        <v>0.801097940586452</v>
+        <v>0.8010979405864519</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.558136112150678</v>
+        <v>2.558136112150677</v>
       </c>
       <c r="Y35" t="n">
         <v>0.1861637731269769</v>
@@ -3406,7 +3406,7 @@
         <v>-0.5793704740945111</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.01407662620292794</v>
+        <v>-0.01407662620292793</v>
       </c>
       <c r="F36" t="n">
         <v>-1.905026869339528</v>
@@ -3418,7 +3418,7 @@
         <v>-0.00143871033802799</v>
       </c>
       <c r="I36" t="n">
-        <v>1.567726886370993</v>
+        <v>1.567726886370992</v>
       </c>
       <c r="J36" t="n">
         <v>3.155234338766792</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>3.475110578096466</v>
+        <v>3.475110578096467</v>
       </c>
       <c r="Y36" t="n">
         <v>0.2111297111766908</v>
@@ -3489,10 +3489,10 @@
         <v>1.93134501364535</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02969481145010292</v>
+        <v>0.02969481145010291</v>
       </c>
       <c r="F37" t="n">
-        <v>6.183352998420185</v>
+        <v>6.183352998420187</v>
       </c>
       <c r="G37" t="n">
         <v>3.656144828552207</v>
@@ -3513,7 +3513,7 @@
         <v>7.468099306068956</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2103732364203905</v>
+        <v>0.2103732364203896</v>
       </c>
       <c r="N37" t="n">
         <v>-0.06008529745731982</v>
@@ -3522,13 +3522,13 @@
         <v>0.9122251226642941</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8683428634715731</v>
+        <v>0.8683428634715722</v>
       </c>
       <c r="Q37" t="n">
         <v>-0.03067951601971616</v>
       </c>
       <c r="R37" t="n">
-        <v>2.971787264867256</v>
+        <v>2.971787264867255</v>
       </c>
       <c r="S37" t="n">
         <v>1.121242884430626</v>
@@ -3537,19 +3537,19 @@
         <v>-0.008400033833477046</v>
       </c>
       <c r="U37" t="n">
-        <v>3.402205817845965</v>
+        <v>3.402205817845966</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7684314159476541</v>
+        <v>0.768431415947654</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.380821108839712</v>
+        <v>2.380821108839711</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1904826387565356</v>
+        <v>0.1904826387565357</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -3572,16 +3572,16 @@
         <v>3.722939848835962</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07364436756127503</v>
+        <v>0.07364436756127501</v>
       </c>
       <c r="F38" t="n">
         <v>12.03150400491665</v>
       </c>
       <c r="G38" t="n">
-        <v>7.119393122914962</v>
+        <v>7.119393122914963</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1677465549646856</v>
+        <v>0.1677465549646857</v>
       </c>
       <c r="I38" t="n">
         <v>21.21414271418418</v>
@@ -3605,19 +3605,19 @@
         <v>12.00569192805238</v>
       </c>
       <c r="P38" t="n">
-        <v>1.807881076815656</v>
+        <v>1.807881076815655</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0004136094773131357</v>
+        <v>0.0004136094773131392</v>
       </c>
       <c r="R38" t="n">
-        <v>5.884941563011727</v>
+        <v>5.884941563011726</v>
       </c>
       <c r="S38" t="n">
         <v>0.7694379093412349</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.003962502533910828</v>
+        <v>-0.00396250253391083</v>
       </c>
       <c r="U38" t="n">
         <v>2.899349695949847</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.270574894420141</v>
+        <v>1.27057489442014</v>
       </c>
       <c r="Y38" t="n">
         <v>0.0392605412370039</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.3117425381906328</v>
+        <v>0.3117425381906327</v>
       </c>
     </row>
     <row r="39">
@@ -3655,7 +3655,7 @@
         <v>3.220897119384092</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05570463208661143</v>
+        <v>0.05570463208661142</v>
       </c>
       <c r="F39" t="n">
         <v>10.31827467456206</v>
@@ -3667,7 +3667,7 @@
         <v>0.13002094573186</v>
       </c>
       <c r="I39" t="n">
-        <v>19.13126139481464</v>
+        <v>19.13126139481465</v>
       </c>
       <c r="J39" t="n">
         <v>4.791728904746464</v>
@@ -3679,22 +3679,22 @@
         <v>13.95153614238511</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7733926822665991</v>
+        <v>0.7733926822665986</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.03809047443829915</v>
+        <v>-0.03809047443829913</v>
       </c>
       <c r="O39" t="n">
         <v>2.668978007597273</v>
       </c>
       <c r="P39" t="n">
-        <v>0.4859024694154317</v>
+        <v>0.4859024694154312</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.03620179323432107</v>
+        <v>-0.03620179323432108</v>
       </c>
       <c r="R39" t="n">
-        <v>2.354040733232917</v>
+        <v>2.354040733232916</v>
       </c>
       <c r="S39" t="n">
         <v>0.5697238798545083</v>
@@ -3703,7 +3703,7 @@
         <v>-0.01341641788983857</v>
       </c>
       <c r="U39" t="n">
-        <v>2.192249059770087</v>
+        <v>2.192249059770088</v>
       </c>
       <c r="V39" t="n">
         <v>0.3847515674611103</v>
@@ -3715,7 +3715,7 @@
         <v>1.430402612011112</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.09902948262049527</v>
+        <v>0.09902948262049532</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -3735,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4592902697943428</v>
+        <v>-0.4592902697943426</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.01450617968164181</v>
+        <v>-0.0145061796816418</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.495840152826602</v>
+        <v>-1.4958401528266</v>
       </c>
       <c r="G40" t="n">
         <v>-0.3941963734801437</v>
@@ -3786,7 +3786,7 @@
         <v>0.01219232238087923</v>
       </c>
       <c r="U40" t="n">
-        <v>6.410562407942934</v>
+        <v>6.410562407942933</v>
       </c>
       <c r="V40" t="n">
         <v>1.253050332225705</v>
@@ -3798,7 +3798,7 @@
         <v>3.76226658719445</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2768971802433727</v>
+        <v>0.2768971802433728</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>-1.002975141656519</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01830418071593967</v>
+        <v>-0.01830418071593966</v>
       </c>
       <c r="F41" t="n">
         <v>-3.191308291634614</v>
@@ -3839,7 +3839,7 @@
         <v>2.523150322289086</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0492675011916742</v>
+        <v>0.04926750119167421</v>
       </c>
       <c r="L41" t="n">
         <v>7.906602270709755</v>
@@ -3854,7 +3854,7 @@
         <v>19.50856087260543</v>
       </c>
       <c r="P41" t="n">
-        <v>4.811234661643394</v>
+        <v>4.811234661643395</v>
       </c>
       <c r="Q41" t="n">
         <v>0.07626528861751244</v>
@@ -3878,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.011989379118919</v>
+        <v>4.01198937911892</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.2435336749488842</v>
+        <v>0.2435336749488841</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0.01143295592137637</v>
       </c>
       <c r="R42" t="n">
-        <v>7.005874013439824</v>
+        <v>7.005874013439823</v>
       </c>
       <c r="S42" t="n">
         <v>1.152195497926241</v>
@@ -4017,7 +4017,7 @@
         <v>-0.003176064310144375</v>
       </c>
       <c r="O43" t="n">
-        <v>7.934838278602459</v>
+        <v>7.93483827860246</v>
       </c>
       <c r="P43" t="n">
         <v>1.975537119933187</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.6901768000794106</v>
+        <v>0.6901768000794107</v>
       </c>
     </row>
     <row r="44">
@@ -4070,10 +4070,10 @@
         <v>-1.067699769569783</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.02142119325095107</v>
+        <v>-0.02142119325095106</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.464921002205231</v>
+        <v>-3.464921002205232</v>
       </c>
       <c r="G44" t="n">
         <v>-0.1822038893194007</v>
@@ -4118,7 +4118,7 @@
         <v>0.02961602922063123</v>
       </c>
       <c r="U44" t="n">
-        <v>8.001791011920471</v>
+        <v>8.001791011920469</v>
       </c>
       <c r="V44" t="n">
         <v>1.131849190290019</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>3.703356898010237</v>
+        <v>3.703356898010238</v>
       </c>
       <c r="Y44" t="n">
         <v>0.2092102566204082</v>
@@ -4177,7 +4177,7 @@
         <v>18.60520853758302</v>
       </c>
       <c r="M45" t="n">
-        <v>2.409701261227433</v>
+        <v>2.409701261227432</v>
       </c>
       <c r="N45" t="n">
         <v>-0.01782139674177262</v>
@@ -4186,13 +4186,13 @@
         <v>7.456191875696703</v>
       </c>
       <c r="P45" t="n">
-        <v>0.9602656850756413</v>
+        <v>0.9602656850756404</v>
       </c>
       <c r="Q45" t="n">
         <v>-0.02340376510053558</v>
       </c>
       <c r="R45" t="n">
-        <v>3.559024922908273</v>
+        <v>3.559024922908272</v>
       </c>
       <c r="S45" t="n">
         <v>0.4782021003053687</v>
@@ -4204,16 +4204,16 @@
         <v>1.998475119026772</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2100860490857988</v>
+        <v>0.2100860490857986</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.04232857450637</v>
+        <v>1.042328574506369</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04117999579328645</v>
+        <v>0.04117999579328648</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0.5354261375830384</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01470971271894873</v>
+        <v>0.01470971271894874</v>
       </c>
       <c r="F46" t="n">
         <v>1.792579803254268</v>
@@ -4245,10 +4245,10 @@
         <v>1.718938186871828</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05004480542018535</v>
+        <v>0.05004480542018534</v>
       </c>
       <c r="I46" t="n">
-        <v>5.387591908351068</v>
+        <v>5.387591908351065</v>
       </c>
       <c r="J46" t="n">
         <v>4.682950209398245</v>
@@ -4272,7 +4272,7 @@
         <v>4.518383295153232</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.07107099134379277</v>
+        <v>0.07107099134379279</v>
       </c>
       <c r="R46" t="n">
         <v>12.88697375430456</v>
@@ -4284,10 +4284,10 @@
         <v>0.02349397241856421</v>
       </c>
       <c r="U46" t="n">
-        <v>6.910491816079139</v>
+        <v>6.910491816079138</v>
       </c>
       <c r="V46" t="n">
-        <v>0.9126484744379387</v>
+        <v>0.9126484744379388</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>3.112502198893126</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1544799298861201</v>
+        <v>0.15447992988612</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>0.05545319706603882</v>
       </c>
       <c r="F47" t="n">
-        <v>8.487232529811742</v>
+        <v>8.48723252981174</v>
       </c>
       <c r="G47" t="n">
         <v>5.875275630984551</v>
@@ -4379,7 +4379,7 @@
         <v>1.701601875946281</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03422192658780066</v>
+        <v>0.03422192658780063</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.548443278321268</v>
+        <v>2.548443278321269</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04447300477521981</v>
+        <v>0.04447300477521979</v>
       </c>
       <c r="F48" t="n">
         <v>8.183026833519969</v>
@@ -4429,22 +4429,22 @@
         <v>1.681879820327029</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.01679667929690744</v>
+        <v>-0.01679667929690745</v>
       </c>
       <c r="O48" t="n">
         <v>5.222401973567095</v>
       </c>
       <c r="P48" t="n">
-        <v>1.208322537782815</v>
+        <v>1.208322537782814</v>
       </c>
       <c r="Q48" t="n">
         <v>-0.01837345779725854</v>
       </c>
       <c r="R48" t="n">
-        <v>4.122604449427747</v>
+        <v>4.122604449427746</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9626299087633727</v>
+        <v>0.9626299087633725</v>
       </c>
       <c r="T48" t="n">
         <v>-0.006592700352792448</v>
@@ -4462,7 +4462,7 @@
         <v>1.916350096430761</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.1290340353194124</v>
+        <v>0.1290340353194125</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>-1.629442457858797</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.03974595258979322</v>
+        <v>-0.03974595258979321</v>
       </c>
       <c r="F49" t="n">
         <v>-5.329020831362707</v>
@@ -4497,7 +4497,7 @@
         <v>-0.06187360561139912</v>
       </c>
       <c r="I49" t="n">
-        <v>-4.67827312636196</v>
+        <v>-4.678273126361962</v>
       </c>
       <c r="J49" t="n">
         <v>0.6525306491826317</v>
@@ -4506,7 +4506,7 @@
         <v>-0.006017403157544954</v>
       </c>
       <c r="L49" t="n">
-        <v>2.256680476543551</v>
+        <v>2.256680476543549</v>
       </c>
       <c r="M49" t="n">
         <v>3.459783800202324</v>
@@ -4518,13 +4518,13 @@
         <v>10.01283461308478</v>
       </c>
       <c r="P49" t="n">
-        <v>3.44446154046018</v>
+        <v>3.444461540460181</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.03948589593543562</v>
+        <v>0.03948589593543561</v>
       </c>
       <c r="R49" t="n">
-        <v>9.919652451045224</v>
+        <v>9.919652451045225</v>
       </c>
       <c r="S49" t="n">
         <v>2.536320875790484</v>
@@ -4568,10 +4568,10 @@
         <v>1.682495840144534</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02269073865172302</v>
+        <v>0.02269073865172301</v>
       </c>
       <c r="F50" t="n">
-        <v>5.334386579673179</v>
+        <v>5.334386579673181</v>
       </c>
       <c r="G50" t="n">
         <v>3.734823337825599</v>
@@ -4583,31 +4583,31 @@
         <v>11.04503718351859</v>
       </c>
       <c r="J50" t="n">
-        <v>2.631929017637304</v>
+        <v>2.631929017637305</v>
       </c>
       <c r="K50" t="n">
         <v>0.0256117217857907</v>
       </c>
       <c r="L50" t="n">
-        <v>7.689956036063435</v>
+        <v>7.689956036063434</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1005052397175943</v>
+        <v>0.1005052397175934</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.04473893714806258</v>
+        <v>-0.04473893714806255</v>
       </c>
       <c r="O50" t="n">
         <v>0.5942004445332074</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7787538359055941</v>
+        <v>0.7787538359055937</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.03100749596060139</v>
+        <v>-0.03100749596060141</v>
       </c>
       <c r="R50" t="n">
-        <v>2.935675928124012</v>
+        <v>2.935675928124011</v>
       </c>
       <c r="S50" t="n">
         <v>1.076515420351884</v>
@@ -4672,7 +4672,7 @@
         <v>-0.04388396478646966</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.844455979675026</v>
+        <v>-1.844455979675027</v>
       </c>
       <c r="M51" t="n">
         <v>3.687451644660833</v>
@@ -4684,7 +4684,7 @@
         <v>10.57018249266874</v>
       </c>
       <c r="P51" t="n">
-        <v>4.041686285454932</v>
+        <v>4.041686285454933</v>
       </c>
       <c r="Q51" t="n">
         <v>0.05132519223171195</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>4.890000087334014</v>
+        <v>4.890000087334015</v>
       </c>
       <c r="Y51" t="n">
         <v>0.3640314707498543</v>
@@ -4731,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.7591506372318237</v>
+        <v>-0.7591506372318235</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.01403209658839263</v>
+        <v>-0.01403209658839262</v>
       </c>
       <c r="F52" t="n">
         <v>-2.46508408465534</v>
@@ -4758,7 +4758,7 @@
         <v>13.2258448558911</v>
       </c>
       <c r="M52" t="n">
-        <v>8.047037398029351</v>
+        <v>8.047037398029353</v>
       </c>
       <c r="N52" t="n">
         <v>0.2083174847330699</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>3.471121391805762</v>
+        <v>3.471121391805763</v>
       </c>
       <c r="Y52" t="n">
         <v>0.1784859549018466</v>
@@ -4817,7 +4817,7 @@
         <v>3.594170879635315</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06621074128418128</v>
+        <v>0.06621074128418125</v>
       </c>
       <c r="F53" t="n">
         <v>11.59172430268257</v>
@@ -4841,7 +4841,7 @@
         <v>13.61875104739339</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9381946773207934</v>
+        <v>0.938194677320793</v>
       </c>
       <c r="N53" t="n">
         <v>-0.061110014902185</v>
@@ -4850,13 +4850,13 @@
         <v>3.146015024793902</v>
       </c>
       <c r="P53" t="n">
-        <v>0.6202860107643997</v>
+        <v>0.6202860107643988</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.0357098233229932</v>
+        <v>-0.03570982332299321</v>
       </c>
       <c r="R53" t="n">
-        <v>2.408207738347783</v>
+        <v>2.408207738347782</v>
       </c>
       <c r="S53" t="n">
         <v>0.6368150759726221</v>
@@ -4868,13 +4868,13 @@
         <v>2.202297025245267</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4203575859750217</v>
+        <v>0.4203575859750216</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>1.50679958691532</v>
+        <v>1.506799586915319</v>
       </c>
       <c r="Y53" t="n">
         <v>0.1026285992304097</v>
@@ -4897,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7014928667437522</v>
+        <v>0.7014928667437521</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004070014677772949</v>
+        <v>0.004070014677772947</v>
       </c>
       <c r="F54" t="n">
-        <v>2.199301821081195</v>
+        <v>2.199301821081196</v>
       </c>
       <c r="G54" t="n">
         <v>1.63698498845089</v>
@@ -4912,7 +4912,7 @@
         <v>0.01409325135902852</v>
       </c>
       <c r="I54" t="n">
-        <v>4.868745483212565</v>
+        <v>4.868745483212566</v>
       </c>
       <c r="J54" t="n">
         <v>1.235987065843872</v>
@@ -4927,7 +4927,7 @@
         <v>0.2732390858247049</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.04508945108687706</v>
+        <v>-0.04508945108687705</v>
       </c>
       <c r="O54" t="n">
         <v>0.9925359850516298</v>
@@ -4936,7 +4936,7 @@
         <v>1.331184067117356</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.01933218963476768</v>
+        <v>-0.01933218963476769</v>
       </c>
       <c r="R54" t="n">
         <v>4.128831052038597</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.9719027761843176</v>
+        <v>0.9719027761843175</v>
       </c>
     </row>
     <row r="55">
@@ -4980,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1.010041999081711</v>
+        <v>1.010041999081712</v>
       </c>
       <c r="E55" t="n">
         <v>0.01145911134033139</v>
       </c>
       <c r="F55" t="n">
-        <v>3.199138738631087</v>
+        <v>3.199138738631088</v>
       </c>
       <c r="G55" t="n">
         <v>2.345370349178119</v>
@@ -4995,13 +4995,13 @@
         <v>0.03311885789255564</v>
       </c>
       <c r="I55" t="n">
-        <v>6.985158986107739</v>
+        <v>6.98515898610774</v>
       </c>
       <c r="J55" t="n">
         <v>2.084296954614391</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01467197968697731</v>
+        <v>0.01467197968697732</v>
       </c>
       <c r="L55" t="n">
         <v>6.192976689936914</v>
@@ -5019,10 +5019,10 @@
         <v>1.501173904272977</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.01317916052353887</v>
+        <v>-0.01317916052353888</v>
       </c>
       <c r="R55" t="n">
-        <v>4.704239644318843</v>
+        <v>4.704239644318842</v>
       </c>
       <c r="S55" t="n">
         <v>1.469421449260748</v>
@@ -5031,7 +5031,7 @@
         <v>-0.001495513894285646</v>
       </c>
       <c r="U55" t="n">
-        <v>4.401642026053228</v>
+        <v>4.401642026053229</v>
       </c>
       <c r="V55" t="n">
         <v>0.9181023818690339</v>
@@ -5043,7 +5043,7 @@
         <v>2.815837276656555</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2180877803821765</v>
+        <v>0.2180877803821766</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0.01193319443358058</v>
       </c>
       <c r="F56" t="n">
-        <v>2.229894806802349</v>
+        <v>2.229894806802348</v>
       </c>
       <c r="G56" t="n">
         <v>3.265748194066092</v>
@@ -5149,10 +5149,10 @@
         <v>0.3462769229193667</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00809066378474739</v>
+        <v>0.008090663784747397</v>
       </c>
       <c r="F57" t="n">
-        <v>1.094483883310148</v>
+        <v>1.094483883310147</v>
       </c>
       <c r="G57" t="n">
         <v>2.584680566145842</v>
@@ -5161,7 +5161,7 @@
         <v>0.05563810926255337</v>
       </c>
       <c r="I57" t="n">
-        <v>7.916967395056514</v>
+        <v>7.916967395056513</v>
       </c>
       <c r="J57" t="n">
         <v>5.700164005078349</v>
@@ -5173,7 +5173,7 @@
         <v>17.1051245821152</v>
       </c>
       <c r="M57" t="n">
-        <v>7.929237550273639</v>
+        <v>7.92923755027364</v>
       </c>
       <c r="N57" t="n">
         <v>0.2009948185172558</v>
@@ -5182,7 +5182,7 @@
         <v>23.10237750485872</v>
       </c>
       <c r="P57" t="n">
-        <v>4.509195077176895</v>
+        <v>4.509195077176896</v>
       </c>
       <c r="Q57" t="n">
         <v>0.07656806057325111</v>
@@ -5200,7 +5200,7 @@
         <v>6.795183575669652</v>
       </c>
       <c r="V57" t="n">
-        <v>0.7600380146414454</v>
+        <v>0.7600380146414455</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>2.778404059483041</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.118956806021006</v>
+        <v>0.1189568060210059</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5232,10 +5232,10 @@
         <v>2.055769600395758</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03319684784929286</v>
+        <v>0.03319684784929285</v>
       </c>
       <c r="F58" t="n">
-        <v>6.607836207793689</v>
+        <v>6.607836207793691</v>
       </c>
       <c r="G58" t="n">
         <v>3.616805573915511</v>
@@ -5250,13 +5250,13 @@
         <v>2.505251087455115</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01833381571463997</v>
+        <v>0.01833381571463998</v>
       </c>
       <c r="L58" t="n">
         <v>7.357170941071716</v>
       </c>
       <c r="M58" t="n">
-        <v>0.2653072347717886</v>
+        <v>0.2653072347717877</v>
       </c>
       <c r="N58" t="n">
         <v>-0.06775847761194843</v>
@@ -5265,13 +5265,13 @@
         <v>1.071237461729838</v>
       </c>
       <c r="P58" t="n">
-        <v>0.9131373772545621</v>
+        <v>0.9131373772545617</v>
       </c>
       <c r="Q58" t="n">
         <v>-0.03051552604927354</v>
       </c>
       <c r="R58" t="n">
-        <v>2.989842933238879</v>
+        <v>2.989842933238878</v>
       </c>
       <c r="S58" t="n">
         <v>1.143606616469997</v>
@@ -5280,7 +5280,7 @@
         <v>-0.008440435034549686</v>
       </c>
       <c r="U58" t="n">
-        <v>3.405555139671025</v>
+        <v>3.405555139671026</v>
       </c>
       <c r="V58" t="n">
         <v>0.7803000887856245</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>2.406286767141114</v>
+        <v>2.406286767141113</v>
       </c>
       <c r="Y58" t="n">
         <v>0.1916823442931738</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.7804868655999966</v>
+        <v>0.7804868655999965</v>
       </c>
     </row>
     <row r="59">
@@ -5327,10 +5327,10 @@
         <v>0.05708656059999353</v>
       </c>
       <c r="I59" t="n">
-        <v>7.331056602866741</v>
+        <v>7.33105660286674</v>
       </c>
       <c r="J59" t="n">
-        <v>4.382272383650641</v>
+        <v>4.38227238365064</v>
       </c>
       <c r="K59" t="n">
         <v>0.09079589884826157</v>
@@ -5339,7 +5339,7 @@
         <v>13.17193297806313</v>
       </c>
       <c r="M59" t="n">
-        <v>5.768979821712162</v>
+        <v>5.768979821712163</v>
       </c>
       <c r="N59" t="n">
         <v>0.1057196845969373</v>
@@ -5351,7 +5351,7 @@
         <v>3.625973389630227</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.04708962679550143</v>
+        <v>0.04708962679550144</v>
       </c>
       <c r="R59" t="n">
         <v>10.54300144582949</v>
@@ -5398,19 +5398,19 @@
         <v>1.373946707806575</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01530164198916458</v>
+        <v>0.01530164198916457</v>
       </c>
       <c r="F60" t="n">
-        <v>4.334549662123287</v>
+        <v>4.334549662123289</v>
       </c>
       <c r="G60" t="n">
         <v>3.026437977098369</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04016061307236381</v>
+        <v>0.04016061307236382</v>
       </c>
       <c r="I60" t="n">
-        <v>8.928623680623412</v>
+        <v>8.928623680623414</v>
       </c>
       <c r="J60" t="n">
         <v>1.783619128866786</v>
@@ -5422,13 +5422,13 @@
         <v>5.196727290968619</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.6352480522357249</v>
+        <v>-0.6352480522357258</v>
       </c>
       <c r="N60" t="n">
         <v>-0.06638324622826876</v>
       </c>
       <c r="O60" t="n">
-        <v>-1.560887980918194</v>
+        <v>-1.560887980918192</v>
       </c>
       <c r="P60" t="n">
         <v>0.6087639987499731</v>
@@ -5440,10 +5440,10 @@
         <v>2.360267335843766</v>
       </c>
       <c r="S60" t="n">
-        <v>1.155821908185511</v>
+        <v>1.15582190818551</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.009222898171674068</v>
+        <v>-0.009222898171674064</v>
       </c>
       <c r="U60" t="n">
         <v>3.497418127305093</v>
@@ -5484,10 +5484,10 @@
         <v>0.04840459465312361</v>
       </c>
       <c r="F61" t="n">
-        <v>8.198323326380548</v>
+        <v>8.198323326380546</v>
       </c>
       <c r="G61" t="n">
-        <v>5.887297152814267</v>
+        <v>5.887297152814268</v>
       </c>
       <c r="H61" t="n">
         <v>0.1282468905601913</v>
@@ -5508,7 +5508,7 @@
         <v>4.687758837544622</v>
       </c>
       <c r="N61" t="n">
-        <v>0.08477640339436004</v>
+        <v>0.08477640339436006</v>
       </c>
       <c r="O61" t="n">
         <v>13.92306653776003</v>
@@ -5520,7 +5520,7 @@
         <v>0.01758598503260518</v>
       </c>
       <c r="R61" t="n">
-        <v>7.58128260572007</v>
+        <v>7.581282605720069</v>
       </c>
       <c r="S61" t="n">
         <v>1.072889010092614</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.4096492731227255</v>
+        <v>0.4096492731227254</v>
       </c>
     </row>
     <row r="62">
@@ -5567,7 +5567,7 @@
         <v>0.02277979788079365</v>
       </c>
       <c r="F62" t="n">
-        <v>4.214272149041556</v>
+        <v>4.214272149041555</v>
       </c>
       <c r="G62" t="n">
         <v>3.868137312712951</v>
@@ -5579,7 +5579,7 @@
         <v>11.59741579218272</v>
       </c>
       <c r="J62" t="n">
-        <v>5.014356400128346</v>
+        <v>5.014356400128347</v>
       </c>
       <c r="K62" t="n">
         <v>0.1065875783278421</v>
@@ -5597,13 +5597,13 @@
         <v>14.00337740014737</v>
       </c>
       <c r="P62" t="n">
-        <v>2.813964293696865</v>
+        <v>2.813964293696866</v>
       </c>
       <c r="Q62" t="n">
         <v>0.02893331141755366</v>
       </c>
       <c r="R62" t="n">
-        <v>8.738326392891411</v>
+        <v>8.738326392891409</v>
       </c>
       <c r="S62" t="n">
         <v>1.500374062756362</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>2.321911419655499</v>
+        <v>2.321911419655498</v>
       </c>
       <c r="Y62" t="n">
         <v>0.1227957151335711</v>
@@ -5662,7 +5662,7 @@
         <v>25.48050190350017</v>
       </c>
       <c r="J63" t="n">
-        <v>7.33665857105802</v>
+        <v>7.336658571058021</v>
       </c>
       <c r="K63" t="n">
         <v>0.1542037807024757</v>
@@ -5674,22 +5674,22 @@
         <v>2.980652558126557</v>
       </c>
       <c r="N63" t="n">
-        <v>0.02684245280231942</v>
+        <v>0.02684245280231943</v>
       </c>
       <c r="O63" t="n">
         <v>9.134243283951474</v>
       </c>
       <c r="P63" t="n">
-        <v>0.9958719808822942</v>
+        <v>0.9958719808822938</v>
       </c>
       <c r="Q63" t="n">
         <v>-0.01774270590063463</v>
       </c>
       <c r="R63" t="n">
-        <v>4.080266510073653</v>
+        <v>4.080266510073651</v>
       </c>
       <c r="S63" t="n">
-        <v>0.331804416353628</v>
+        <v>0.3318044163536282</v>
       </c>
       <c r="T63" t="n">
         <v>-0.01070541766881167</v>
@@ -5704,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.7336960933976875</v>
+        <v>0.7336960933976866</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.00685657746481047</v>
+        <v>0.006856577464810498</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -5730,19 +5730,19 @@
         <v>1.498371294556983</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01880367838835453</v>
+        <v>0.01880367838835451</v>
       </c>
       <c r="F64" t="n">
-        <v>4.759032871496791</v>
+        <v>4.759032871496792</v>
       </c>
       <c r="G64" t="n">
         <v>2.987098722461673</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04351868874515359</v>
+        <v>0.0435186887451536</v>
       </c>
       <c r="I64" t="n">
-        <v>8.825383184670843</v>
+        <v>8.825383184670846</v>
       </c>
       <c r="J64" t="n">
         <v>1.741393152139389</v>
@@ -5751,19 +5751,19 @@
         <v>-0.001315097744320634</v>
       </c>
       <c r="L64" t="n">
-        <v>5.08579892597138</v>
+        <v>5.085798925971379</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.5803140538843268</v>
+        <v>-0.5803140538843277</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.0740564263828974</v>
+        <v>-0.07405642638289738</v>
       </c>
       <c r="O64" t="n">
         <v>-1.40187564185265</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6535585125329626</v>
+        <v>0.6535585125329622</v>
       </c>
       <c r="Q64" t="n">
         <v>-0.0369965351013876</v>
@@ -5790,13 +5790,13 @@
         <v>2.587590956742784</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.2200072349384591</v>
+        <v>0.2200072349384592</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.8745952658263358</v>
+        <v>0.8745952658263357</v>
       </c>
     </row>
     <row r="65">
@@ -5813,10 +5813,10 @@
         <v>-0.3261769181434566</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.003140963526644239</v>
+        <v>-0.003140963526644232</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.040763957731944</v>
+        <v>-1.040763957731946</v>
       </c>
       <c r="G65" t="n">
         <v>1.195227577498363</v>
@@ -5843,7 +5843,7 @@
         <v>0.2222886136586475</v>
       </c>
       <c r="O65" t="n">
-        <v>25.65580147082854</v>
+        <v>25.65580147082855</v>
       </c>
       <c r="P65" t="n">
         <v>5.231615145544279</v>
@@ -5911,7 +5911,7 @@
         <v>17.39427769220411</v>
       </c>
       <c r="J66" t="n">
-        <v>5.176858683948861</v>
+        <v>5.176858683948862</v>
       </c>
       <c r="K66" t="n">
         <v>0.09911427430497396</v>
@@ -5920,10 +5920,10 @@
         <v>15.16964227134788</v>
       </c>
       <c r="M66" t="n">
-        <v>2.307765115577553</v>
+        <v>2.307765115577552</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02019399009255598</v>
+        <v>0.02019399009255599</v>
       </c>
       <c r="O66" t="n">
         <v>7.059465720887408</v>
@@ -5932,13 +5932,13 @@
         <v>1.288723347372457</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.01254840862691497</v>
+        <v>-0.01254840862691498</v>
       </c>
       <c r="R66" t="n">
-        <v>4.661901704964747</v>
+        <v>4.661901704964746</v>
       </c>
       <c r="S66" t="n">
-        <v>0.8385959568510034</v>
+        <v>0.8385959568510033</v>
       </c>
       <c r="T66" t="n">
         <v>-0.005608231210304869</v>
@@ -5947,7 +5947,7 @@
         <v>3.089774314868103</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4292867649378787</v>
+        <v>0.4292867649378786</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>1.633183273623481</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0959103225275746</v>
+        <v>0.09591032252757462</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>13.12791850288813</v>
       </c>
       <c r="J67" t="n">
-        <v>4.544774667471155</v>
+        <v>4.544774667471156</v>
       </c>
       <c r="K67" t="n">
         <v>0.08332259482539343</v>
@@ -6059,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.03568560223233508</v>
+        <v>-0.03568560223233486</v>
       </c>
       <c r="E68" t="n">
         <v>-0.01027862516863007</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2095587305315152</v>
+        <v>-0.2095587305315143</v>
       </c>
       <c r="G68" t="n">
         <v>1.073935124440728</v>
@@ -6074,10 +6074,10 @@
         <v>-0.003022730839148974</v>
       </c>
       <c r="I68" t="n">
-        <v>3.235002276554597</v>
+        <v>3.235002276554598</v>
       </c>
       <c r="J68" t="n">
-        <v>1.663342821773666</v>
+        <v>1.663342821773667</v>
       </c>
       <c r="K68" t="n">
         <v>0.01101014365931466</v>
@@ -6095,22 +6095,22 @@
         <v>5.224011359276222</v>
       </c>
       <c r="P68" t="n">
-        <v>2.089210431291392</v>
+        <v>2.089210431291393</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.004157205002195796</v>
+        <v>0.004157205002195786</v>
       </c>
       <c r="R68" t="n">
-        <v>6.418636355398808</v>
+        <v>6.418636355398807</v>
       </c>
       <c r="S68" t="n">
         <v>1.795236282051498</v>
       </c>
       <c r="T68" t="n">
-        <v>0.005449407245978392</v>
+        <v>0.005449407245978393</v>
       </c>
       <c r="U68" t="n">
-        <v>5.397728912435431</v>
+        <v>5.397728912435432</v>
       </c>
       <c r="V68" t="n">
         <v>1.055904674952443</v>
@@ -6122,7 +6122,7 @@
         <v>3.225387786171996</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.2444932164711793</v>
+        <v>0.2444932164711794</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0.04494708786846898</v>
       </c>
       <c r="F69" t="n">
-        <v>7.213782901691232</v>
+        <v>7.21378290169123</v>
       </c>
       <c r="G69" t="n">
         <v>5.993293394894639</v>
@@ -6157,7 +6157,7 @@
         <v>0.1335145905683306</v>
       </c>
       <c r="I69" t="n">
-        <v>17.94665630086824</v>
+        <v>17.94665630086825</v>
       </c>
       <c r="J69" t="n">
         <v>7.559286066439904</v>
@@ -6193,10 +6193,10 @@
         <v>0.01173467322730185</v>
       </c>
       <c r="U69" t="n">
-        <v>4.687701562495758</v>
+        <v>4.687701562495759</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3318229686781333</v>
+        <v>0.3318229686781332</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>1.625204901042073</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0306228099778863</v>
+        <v>0.03062280997788625</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>-0.3348656830439349</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.01100414328245186</v>
+        <v>-0.01100414328245185</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.071356943453099</v>
+        <v>-1.071356943453097</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4335356281168394</v>
+        <v>-0.4335356281168399</v>
       </c>
       <c r="H70" t="n">
         <v>-0.01901586553411495</v>
@@ -6258,7 +6258,7 @@
         <v>0.01914244827611251</v>
       </c>
       <c r="O70" t="n">
-        <v>8.254472342442673</v>
+        <v>8.254472342442675</v>
       </c>
       <c r="P70" t="n">
         <v>2.946014041007744</v>
@@ -6267,7 +6267,7 @@
         <v>0.02247751035058619</v>
       </c>
       <c r="R70" t="n">
-        <v>8.241367076708503</v>
+        <v>8.241367076708505</v>
       </c>
       <c r="S70" t="n">
         <v>2.255233507078476</v>
@@ -6276,7 +6276,7 @@
         <v>0.01215192117980659</v>
       </c>
       <c r="U70" t="n">
-        <v>6.413911729767994</v>
+        <v>6.413911729767993</v>
       </c>
       <c r="V70" t="n">
         <v>1.264919005063676</v>
@@ -6314,13 +6314,13 @@
         <v>-0.03269735017687801</v>
       </c>
       <c r="F71" t="n">
-        <v>-5.040111627931511</v>
+        <v>-5.040111627931513</v>
       </c>
       <c r="G71" t="n">
         <v>-1.638313865410556</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.04653167858489041</v>
+        <v>-0.04653167858489042</v>
       </c>
       <c r="I71" t="n">
         <v>-4.608564813935029</v>
@@ -6347,7 +6347,7 @@
         <v>4.551655796921795</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.06978427956539839</v>
+        <v>0.0697842795653984</v>
       </c>
       <c r="R71" t="n">
         <v>12.85708902017217</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>4.193293568720589</v>
+        <v>4.19329356872059</v>
       </c>
       <c r="Y71" t="n">
         <v>0.2718585655941695</v>
@@ -6394,10 +6394,10 @@
         <v>-0.09104117861923955</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.00673205915490481</v>
+        <v>-0.006732059154904803</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3451327364738241</v>
+        <v>-0.3451327364738237</v>
       </c>
       <c r="G72" t="n">
         <v>1.101252857247708</v>
@@ -6412,7 +6412,7 @@
         <v>2.812330536291791</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04907210323995679</v>
+        <v>0.04907210323995678</v>
       </c>
       <c r="L72" t="n">
         <v>8.518260582865221</v>
